--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202304_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202304_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EBABEC-6CCC-4480-A781-DC82BF8E008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5F0B1-F8C0-4488-854A-2FA190248678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="175">
   <si>
     <t>type</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
-    <t>(regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${p_district}, 0, 3) = substr(., 0, 3) and ${p_district} != 'KPENDJAL OUEST') or (if(${p_district} = 'KPENDJAL OUEST', if(substr(., 0, 3) = 'OUE', true(), false()), false()) and regex(., '^[A-Z]{3}[0-9]{4}$'))</t>
-  </si>
-  <si>
-    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. Par exemple: TCH0001 for TCHAOUDJO.</t>
-  </si>
-  <si>
     <t>${p_consent} = 'A.donne'</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
   </si>
   <si>
     <t>Saisez le code QR manuellement</t>
-  </si>
-  <si>
-    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres. Par exemple: TCH0001 pour TCHAOUDJO</t>
   </si>
   <si>
     <t>${p_consent} = 'A.donne' and ${p_barcode_ok} = 'Non'</t>
@@ -1090,7 +1081,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1160,10 +1151,10 @@
       <c r="D2" s="21"/>
       <c r="E2" s="9"/>
       <c r="F2" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1200,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
@@ -1240,7 +1231,7 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,7 +1278,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -1299,14 +1290,10 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1315,20 +1302,20 @@
     </row>
     <row r="9" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
       <c r="H9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
@@ -1337,26 +1324,22 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
@@ -1367,24 +1350,24 @@
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="9" t="s">
@@ -1395,20 +1378,20 @@
     </row>
     <row r="12" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="23"/>
       <c r="H12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="9" t="s">
@@ -1419,22 +1402,22 @@
     </row>
     <row r="13" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="23"/>
       <c r="H13" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="9" t="s">
@@ -1445,20 +1428,20 @@
     </row>
     <row r="14" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="23"/>
       <c r="H14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="9" t="s">
@@ -1469,20 +1452,20 @@
     </row>
     <row r="15" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="23"/>
       <c r="H15" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
@@ -1491,24 +1474,24 @@
     </row>
     <row r="16" spans="1:12" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
@@ -1520,17 +1503,17 @@
         <v>22</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
       <c r="H17" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1542,17 +1525,17 @@
         <v>22</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1561,13 +1544,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
@@ -1581,10 +1564,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="12"/>
@@ -1599,10 +1582,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="12"/>
@@ -1639,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1648,27 +1631,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="15"/>
@@ -1677,13 +1660,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="15"/>
@@ -1692,13 +1675,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
@@ -1707,13 +1690,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
@@ -1722,13 +1705,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15"/>
@@ -1737,13 +1720,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
@@ -1752,13 +1735,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
@@ -1767,13 +1750,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
@@ -1782,13 +1765,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15"/>
@@ -1797,13 +1780,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
@@ -1812,13 +1795,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
@@ -1827,13 +1810,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
@@ -1842,13 +1825,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
@@ -1857,13 +1840,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
@@ -1872,13 +1855,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15"/>
@@ -1887,13 +1870,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
@@ -1902,13 +1885,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="15"/>
@@ -1917,13 +1900,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
@@ -1932,13 +1915,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15"/>
@@ -1947,13 +1930,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
@@ -1962,13 +1945,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="15"/>
@@ -1977,13 +1960,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15"/>
@@ -1992,13 +1975,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="15"/>
@@ -2012,24 +1995,24 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2039,343 +2022,343 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="C32" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="C34" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="C40" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="C43" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="C53" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4444,24 +4427,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
